--- a/Proyecto/Comparativa_4_Algoritmos.xlsx
+++ b/Proyecto/Comparativa_4_Algoritmos.xlsx
@@ -465,16 +465,16 @@
         <v>200</v>
       </c>
       <c r="B2" t="n">
-        <v>4.333748579025269</v>
+        <v>4.310632228851318</v>
       </c>
       <c r="C2" t="n">
-        <v>19.62608194351196</v>
+        <v>19.43578267097473</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +482,13 @@
         <v>400</v>
       </c>
       <c r="B3" t="n">
-        <v>1.683058738708496</v>
+        <v>1.70751166343689</v>
       </c>
       <c r="C3" t="n">
-        <v>38.90982055664062</v>
+        <v>36.81599235534668</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
@@ -499,16 +499,16 @@
         <v>600</v>
       </c>
       <c r="B4" t="n">
-        <v>2.720192909240723</v>
+        <v>2.713860273361206</v>
       </c>
       <c r="C4" t="n">
-        <v>59.82293438911438</v>
+        <v>55.92659616470337</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>800</v>
       </c>
       <c r="B5" t="n">
-        <v>3.718054056167603</v>
+        <v>3.631746053695679</v>
       </c>
       <c r="C5" t="n">
-        <v>77.81282114982605</v>
+        <v>74.68357300758362</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>1000</v>
       </c>
       <c r="B6" t="n">
-        <v>4.825592041015625</v>
+        <v>4.693317174911499</v>
       </c>
       <c r="C6" t="n">
-        <v>94.8058934211731</v>
+        <v>93.92089486122131</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
